--- a/planilhas/Modelo_Fub.xlsx
+++ b/planilhas/Modelo_Fub.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemanoel.brito\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemanoel.brito\Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19320" windowHeight="12810" tabRatio="902" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19320" windowHeight="12810" tabRatio="902"/>
   </bookViews>
   <sheets>
     <sheet name="Capa Finatec" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -306,6 +306,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Moeda 2" xfId="1"/>
@@ -824,8 +828,8 @@
   </sheetPr>
   <dimension ref="B2:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -883,17 +887,17 @@
       <c r="H21" s="21"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="N24" s="18"/>
@@ -914,8 +918,7 @@
       <c r="B34" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B23:L23"/>
+  <mergeCells count="1">
     <mergeCell ref="B4:L4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -931,7 +934,7 @@
   </sheetPr>
   <dimension ref="A1:K4606"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
